--- a/matlab/ipb1-29.xlsx
+++ b/matlab/ipb1-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>reactor</t>
   </si>
@@ -55,9 +55,6 @@
     <t>gas</t>
   </si>
   <si>
-    <t>note</t>
-  </si>
-  <si>
     <t>termRes</t>
   </si>
   <si>
@@ -107,13 +104,25 @@
   </si>
   <si>
     <t>bad data and no coreqpow</t>
+  </si>
+  <si>
+    <t>googleModel</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>dc-he</t>
+  </si>
+  <si>
+    <t>dc-h2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +282,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -619,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -628,6 +650,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -678,6 +702,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -973,28 +1000,29 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,30 +1057,30 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1081,22 +1109,25 @@
       <c r="M2" s="1">
         <v>170</v>
       </c>
+      <c r="N2" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1125,22 +1156,25 @@
       <c r="M3" s="1">
         <v>171</v>
       </c>
+      <c r="N3" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1">
         <v>19</v>
@@ -1169,19 +1203,25 @@
       <c r="M4" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1196,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1210,11 +1250,17 @@
       <c r="M5" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
@@ -1226,15 +1272,15 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
@@ -1246,9 +1292,9 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
@@ -1260,24 +1306,26 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C12" s="7"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C13" s="7"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="C14" s="3"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
@@ -1292,8 +1340,9 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1308,8 +1357,9 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1324,8 +1374,9 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -1340,8 +1391,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -1356,6 +1408,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
